--- a/CS/courses/CS-463/assignments/4/463-2025b-hw4-warn.xlsx
+++ b/CS/courses/CS-463/assignments/4/463-2025b-hw4-warn.xlsx
@@ -121,7 +121,7 @@
     <t xml:space="preserve">5d</t>
   </si>
   <si>
-    <t xml:space="preserve">Because we have 2^N – 511 (treating the twos complement representation as unsigned), then we add 511, so we have 2^N-511+511 = 2^N, and N is 16. So, 2^(16).</t>
+    <t xml:space="preserve">Because we have 2^N -1 – 511 +1 (the value of the twos complement representation in unsigned binary), then we add 511, so we have 2^N -1 -511 + 1 + 511 = 2^N, and N is 16. So, 2^(16).</t>
   </si>
   <si>
     <t xml:space="preserve">6a</t>
@@ -157,13 +157,13 @@
     <t xml:space="preserve">7d</t>
   </si>
   <si>
-    <t xml:space="preserve">Err =|0.3-.625| = 0.325</t>
+    <t xml:space="preserve">Err = 0.3-0.296875 = 0.003125</t>
   </si>
   <si>
     <t xml:space="preserve">7e</t>
   </si>
   <si>
-    <t xml:space="preserve">Hex fractions have higher error, less precice, even though they represent the same number</t>
+    <t xml:space="preserve">Errors are the same, 0x.4c and 0b.0100 1100 represent the same number, just in two different representations</t>
   </si>
   <si>
     <t xml:space="preserve">7f</t>
@@ -187,7 +187,7 @@
     <t xml:space="preserve">7i</t>
   </si>
   <si>
-    <t xml:space="preserve">7g, less binary digts means less precision, which means greater truncation error</t>
+    <t xml:space="preserve">7g, less binary digits means less precision, which means greater truncation error</t>
   </si>
   <si>
     <t xml:space="preserve">8a</t>
@@ -223,19 +223,19 @@
     <t xml:space="preserve">9b</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
+    <t xml:space="preserve">0.9453125</t>
   </si>
   <si>
     <t xml:space="preserve">9c</t>
   </si>
   <si>
-    <t xml:space="preserve">0b0101 1100.1111 0010</t>
+    <t xml:space="preserve">0b0101 1010.1111 0010</t>
   </si>
   <si>
     <t xml:space="preserve">9d</t>
   </si>
   <si>
-    <t xml:space="preserve">91</t>
+    <t xml:space="preserve">90.9453125</t>
   </si>
   <si>
     <t xml:space="preserve">10a</t>
@@ -247,7 +247,7 @@
     <t xml:space="preserve">10b</t>
   </si>
   <si>
-    <t xml:space="preserve">179,54,233, the result is correct because the maximum number in 8-bits is 2^8 – 1 = 255, and the result is 233 &lt; 255. We also know theh answer is correct because there was no carry out (overflow) out of the msb.</t>
+    <t xml:space="preserve">179,54,233, the result is correct because the maximum number in 8-bits is 2^8 – 1 = 255, and the result is 233 &lt; 255. We also know the answer is correct because there was no carry out (overflow) out of the msb.</t>
   </si>
   <si>
     <t xml:space="preserve">11a</t>
@@ -334,7 +334,7 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -361,11 +361,6 @@
       <name val="Lucida Sans Typewriter"/>
       <family val="3"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Lucida Sans Typewriter"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -415,19 +410,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -622,15 +617,15 @@
   </sheetPr>
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G69" activeCellId="0" sqref="G69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="12" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="12" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="2" width="9.21"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="3" width="8.77"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="3" width="8.76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -661,7 +656,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -780,7 +775,7 @@
       <c r="B22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1011,7 +1006,7 @@
       <c r="B50" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="2" t="s">
         <v>65</v>
       </c>
     </row>
